--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.179451858901</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H2">
-        <v>11.179451858901</v>
+        <v>34.311362</v>
       </c>
       <c r="I2">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J2">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.662020668367</v>
+        <v>33.000423</v>
       </c>
       <c r="N2">
-        <v>32.662020668367</v>
+        <v>99.00126900000001</v>
       </c>
       <c r="O2">
-        <v>0.7463612923718889</v>
+        <v>0.7430839250895138</v>
       </c>
       <c r="P2">
-        <v>0.7463612923718889</v>
+        <v>0.7430839250895139</v>
       </c>
       <c r="Q2">
-        <v>365.1434876764383</v>
+        <v>377.4298199020421</v>
       </c>
       <c r="R2">
-        <v>365.1434876764383</v>
+        <v>3396.868379118378</v>
       </c>
       <c r="S2">
-        <v>0.4387644367125397</v>
+        <v>0.4307159707291239</v>
       </c>
       <c r="T2">
-        <v>0.4387644367125397</v>
+        <v>0.430715970729124</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.179451858901</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H3">
-        <v>11.179451858901</v>
+        <v>34.311362</v>
       </c>
       <c r="I3">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J3">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.53190197944933</v>
+        <v>8.535242333333334</v>
       </c>
       <c r="N3">
-        <v>8.53190197944933</v>
+        <v>25.605727</v>
       </c>
       <c r="O3">
-        <v>0.1949628730086299</v>
+        <v>0.1921915175039882</v>
       </c>
       <c r="P3">
-        <v>0.1949628730086299</v>
+        <v>0.1921915175039882</v>
       </c>
       <c r="Q3">
-        <v>95.38198744411594</v>
+        <v>97.6185964855749</v>
       </c>
       <c r="R3">
-        <v>95.38198744411594</v>
+        <v>878.5673683701741</v>
       </c>
       <c r="S3">
-        <v>0.1146130915814784</v>
+        <v>0.1114005474114674</v>
       </c>
       <c r="T3">
-        <v>0.1146130915814784</v>
+        <v>0.1114005474114674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.179451858901</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H4">
-        <v>11.179451858901</v>
+        <v>34.311362</v>
       </c>
       <c r="I4">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J4">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.56775283319524</v>
+        <v>0.05406333333333333</v>
       </c>
       <c r="N4">
-        <v>2.56775283319524</v>
+        <v>0.16219</v>
       </c>
       <c r="O4">
-        <v>0.05867583461948119</v>
+        <v>0.001217366030028042</v>
       </c>
       <c r="P4">
-        <v>0.05867583461948119</v>
+        <v>0.001217366030028042</v>
       </c>
       <c r="Q4">
-        <v>28.70606918426284</v>
+        <v>0.6183288669755556</v>
       </c>
       <c r="R4">
-        <v>28.70606918426284</v>
+        <v>5.564959802780001</v>
       </c>
       <c r="S4">
-        <v>0.03449384338198895</v>
+        <v>0.000705625533876304</v>
       </c>
       <c r="T4">
-        <v>0.03449384338198895</v>
+        <v>0.0007056255338763041</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.7376091292139</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H5">
-        <v>5.7376091292139</v>
+        <v>34.311362</v>
       </c>
       <c r="I5">
-        <v>0.3017121225175469</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J5">
-        <v>0.3017121225175469</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.662020668367</v>
+        <v>2.82036</v>
       </c>
       <c r="N5">
-        <v>32.662020668367</v>
+        <v>8.461080000000001</v>
       </c>
       <c r="O5">
-        <v>0.7463612923718889</v>
+        <v>0.06350719137646997</v>
       </c>
       <c r="P5">
-        <v>0.7463612923718889</v>
+        <v>0.06350719137646997</v>
       </c>
       <c r="Q5">
-        <v>187.4019079653956</v>
+        <v>32.25679764344</v>
       </c>
       <c r="R5">
-        <v>187.4019079653956</v>
+        <v>290.3111787909601</v>
       </c>
       <c r="S5">
-        <v>0.2251862496864619</v>
+        <v>0.03681086436999889</v>
       </c>
       <c r="T5">
-        <v>0.2251862496864619</v>
+        <v>0.03681086436999889</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.7376091292139</v>
+        <v>5.754308333333334</v>
       </c>
       <c r="H6">
-        <v>5.7376091292139</v>
+        <v>17.262925</v>
       </c>
       <c r="I6">
-        <v>0.3017121225175469</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="J6">
-        <v>0.3017121225175469</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.53190197944933</v>
+        <v>33.000423</v>
       </c>
       <c r="N6">
-        <v>8.53190197944933</v>
+        <v>99.00126900000001</v>
       </c>
       <c r="O6">
-        <v>0.1949628730086299</v>
+        <v>0.7430839250895138</v>
       </c>
       <c r="P6">
-        <v>0.1949628730086299</v>
+        <v>0.7430839250895139</v>
       </c>
       <c r="Q6">
-        <v>48.95271868684662</v>
+        <v>189.8946090724251</v>
       </c>
       <c r="R6">
-        <v>48.95271868684662</v>
+        <v>1709.051481651825</v>
       </c>
       <c r="S6">
-        <v>0.05882266222755266</v>
+        <v>0.2167042363109649</v>
       </c>
       <c r="T6">
-        <v>0.05882266222755266</v>
+        <v>0.2167042363109649</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.7376091292139</v>
+        <v>5.754308333333334</v>
       </c>
       <c r="H7">
-        <v>5.7376091292139</v>
+        <v>17.262925</v>
       </c>
       <c r="I7">
-        <v>0.3017121225175469</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="J7">
-        <v>0.3017121225175469</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.56775283319524</v>
+        <v>8.535242333333334</v>
       </c>
       <c r="N7">
-        <v>2.56775283319524</v>
+        <v>25.605727</v>
       </c>
       <c r="O7">
-        <v>0.05867583461948119</v>
+        <v>0.1921915175039882</v>
       </c>
       <c r="P7">
-        <v>0.05867583461948119</v>
+        <v>0.1921915175039882</v>
       </c>
       <c r="Q7">
-        <v>14.73276209730587</v>
+        <v>49.11441608571946</v>
       </c>
       <c r="R7">
-        <v>14.73276209730587</v>
+        <v>442.0297447714751</v>
       </c>
       <c r="S7">
-        <v>0.01770321060353223</v>
+        <v>0.05604846857793362</v>
       </c>
       <c r="T7">
-        <v>0.01770321060353223</v>
+        <v>0.05604846857793363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.0997722810893</v>
+        <v>5.754308333333334</v>
       </c>
       <c r="H8">
-        <v>2.0997722810893</v>
+        <v>17.262925</v>
       </c>
       <c r="I8">
-        <v>0.1104165058064459</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="J8">
-        <v>0.1104165058064459</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>32.662020668367</v>
+        <v>0.05406333333333333</v>
       </c>
       <c r="N8">
-        <v>32.662020668367</v>
+        <v>0.16219</v>
       </c>
       <c r="O8">
-        <v>0.7463612923718889</v>
+        <v>0.001217366030028042</v>
       </c>
       <c r="P8">
-        <v>0.7463612923718889</v>
+        <v>0.001217366030028042</v>
       </c>
       <c r="Q8">
-        <v>68.58280564380284</v>
+        <v>0.3110970895277778</v>
       </c>
       <c r="R8">
-        <v>68.58280564380284</v>
+        <v>2.79987380575</v>
       </c>
       <c r="S8">
-        <v>0.08241060597288716</v>
+        <v>0.0003550182784755556</v>
       </c>
       <c r="T8">
-        <v>0.08241060597288716</v>
+        <v>0.0003550182784755557</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.0997722810893</v>
+        <v>5.754308333333334</v>
       </c>
       <c r="H9">
-        <v>2.0997722810893</v>
+        <v>17.262925</v>
       </c>
       <c r="I9">
-        <v>0.1104165058064459</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="J9">
-        <v>0.1104165058064459</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.53190197944933</v>
+        <v>2.82036</v>
       </c>
       <c r="N9">
-        <v>8.53190197944933</v>
+        <v>8.461080000000001</v>
       </c>
       <c r="O9">
-        <v>0.1949628730086299</v>
+        <v>0.06350719137646997</v>
       </c>
       <c r="P9">
-        <v>0.1949628730086299</v>
+        <v>0.06350719137646997</v>
       </c>
       <c r="Q9">
-        <v>17.91505128141863</v>
+        <v>16.22922105100001</v>
       </c>
       <c r="R9">
-        <v>17.91505128141863</v>
+        <v>146.0629894590001</v>
       </c>
       <c r="S9">
-        <v>0.02152711919959876</v>
+        <v>0.01852048865925121</v>
       </c>
       <c r="T9">
-        <v>0.02152711919959876</v>
+        <v>0.01852048865925121</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2670106666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.8010320000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="J10">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>33.000423</v>
+      </c>
+      <c r="N10">
+        <v>99.00126900000001</v>
+      </c>
+      <c r="O10">
+        <v>0.7430839250895138</v>
+      </c>
+      <c r="P10">
+        <v>0.7430839250895139</v>
+      </c>
+      <c r="Q10">
+        <v>8.811464945512002</v>
+      </c>
+      <c r="R10">
+        <v>79.30318450960802</v>
+      </c>
+      <c r="S10">
+        <v>0.01005548178079003</v>
+      </c>
+      <c r="T10">
+        <v>0.01005548178079004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2670106666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.8010320000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="J11">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.535242333333334</v>
+      </c>
+      <c r="N11">
+        <v>25.605727</v>
+      </c>
+      <c r="O11">
+        <v>0.1921915175039882</v>
+      </c>
+      <c r="P11">
+        <v>0.1921915175039882</v>
+      </c>
+      <c r="Q11">
+        <v>2.279000745584889</v>
+      </c>
+      <c r="R11">
+        <v>20.511006710264</v>
+      </c>
+      <c r="S11">
+        <v>0.002600753747231093</v>
+      </c>
+      <c r="T11">
+        <v>0.002600753747231094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2670106666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.8010320000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="J12">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.05406333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.16219</v>
+      </c>
+      <c r="O12">
+        <v>0.001217366030028042</v>
+      </c>
+      <c r="P12">
+        <v>0.001217366030028042</v>
+      </c>
+      <c r="Q12">
+        <v>0.01443548667555556</v>
+      </c>
+      <c r="R12">
+        <v>0.12991938008</v>
+      </c>
+      <c r="S12">
+        <v>1.647351197110752E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.647351197110752E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2670106666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.8010320000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="J13">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.82036</v>
+      </c>
+      <c r="N13">
+        <v>8.461080000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.06350719137646997</v>
+      </c>
+      <c r="P13">
+        <v>0.06350719137646997</v>
+      </c>
+      <c r="Q13">
+        <v>0.7530662038400001</v>
+      </c>
+      <c r="R13">
+        <v>6.777595834560001</v>
+      </c>
+      <c r="S13">
+        <v>0.0008593853053116617</v>
+      </c>
+      <c r="T13">
+        <v>0.0008593853053116619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.273219</v>
+      </c>
+      <c r="H14">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J14">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>33.000423</v>
+      </c>
+      <c r="N14">
+        <v>99.00126900000001</v>
+      </c>
+      <c r="O14">
+        <v>0.7430839250895138</v>
+      </c>
+      <c r="P14">
+        <v>0.7430839250895139</v>
+      </c>
+      <c r="Q14">
+        <v>75.01718857163699</v>
+      </c>
+      <c r="R14">
+        <v>675.1546971447329</v>
+      </c>
+      <c r="S14">
+        <v>0.08560823626863498</v>
+      </c>
+      <c r="T14">
+        <v>0.08560823626863501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.273219</v>
+      </c>
+      <c r="H15">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J15">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.535242333333334</v>
+      </c>
+      <c r="N15">
+        <v>25.605727</v>
+      </c>
+      <c r="O15">
+        <v>0.1921915175039882</v>
+      </c>
+      <c r="P15">
+        <v>0.1921915175039882</v>
+      </c>
+      <c r="Q15">
+        <v>19.40247504173767</v>
+      </c>
+      <c r="R15">
+        <v>174.622275375639</v>
+      </c>
+      <c r="S15">
+        <v>0.02214174776735605</v>
+      </c>
+      <c r="T15">
+        <v>0.02214174776735606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.0997722810893</v>
-      </c>
-      <c r="H10">
-        <v>2.0997722810893</v>
-      </c>
-      <c r="I10">
-        <v>0.1104165058064459</v>
-      </c>
-      <c r="J10">
-        <v>0.1104165058064459</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.56775283319524</v>
-      </c>
-      <c r="N10">
-        <v>2.56775283319524</v>
-      </c>
-      <c r="O10">
-        <v>0.05867583461948119</v>
-      </c>
-      <c r="P10">
-        <v>0.05867583461948119</v>
-      </c>
-      <c r="Q10">
-        <v>5.391696223831882</v>
-      </c>
-      <c r="R10">
-        <v>5.391696223831882</v>
-      </c>
-      <c r="S10">
-        <v>0.006478780633960007</v>
-      </c>
-      <c r="T10">
-        <v>0.006478780633960007</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.273219</v>
+      </c>
+      <c r="H16">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J16">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.05406333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.16219</v>
+      </c>
+      <c r="O16">
+        <v>0.001217366030028042</v>
+      </c>
+      <c r="P16">
+        <v>0.001217366030028042</v>
+      </c>
+      <c r="Q16">
+        <v>0.1228977965366666</v>
+      </c>
+      <c r="R16">
+        <v>1.10608016883</v>
+      </c>
+      <c r="S16">
+        <v>0.0001402487057050744</v>
+      </c>
+      <c r="T16">
+        <v>0.0001402487057050744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.273219</v>
+      </c>
+      <c r="H17">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J17">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.82036</v>
+      </c>
+      <c r="N17">
+        <v>8.461080000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.06350719137646997</v>
+      </c>
+      <c r="P17">
+        <v>0.06350719137646997</v>
+      </c>
+      <c r="Q17">
+        <v>6.41129593884</v>
+      </c>
+      <c r="R17">
+        <v>57.70166344956</v>
+      </c>
+      <c r="S17">
+        <v>0.007316453041908201</v>
+      </c>
+      <c r="T17">
+        <v>0.007316453041908202</v>
       </c>
     </row>
   </sheetData>
